--- a/qa_evaluation_test_cases.xlsx
+++ b/qa_evaluation_test_cases.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="74">
   <si>
     <t xml:space="preserve">TEST CASE ID</t>
   </si>
@@ -260,12 +260,6 @@
   </si>
   <si>
     <t xml:space="preserve">ValueError raised with "Invalid model" message</t>
-  </si>
-  <si>
-    <t xml:space="preserve">'qa_evaluation'</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> No module named 'qa_evaluation'</t>
   </si>
 </sst>
 </file>
@@ -275,7 +269,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -304,6 +298,12 @@
       <name val="Cambria"/>
       <family val="0"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -373,7 +373,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -391,6 +391,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -473,13 +477,13 @@
   </sheetPr>
   <dimension ref="A1:K1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
+      <selection pane="topLeft" activeCell="I1" activeCellId="0" sqref="I1"/>
+      <selection pane="bottomLeft" activeCell="K8" activeCellId="0" sqref="K8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15"/>
@@ -763,11 +767,11 @@
       <c r="I8" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="J8" s="2" t="s">
-        <v>74</v>
+      <c r="J8" s="5" t="s">
+        <v>38</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>75</v>
+        <v>39</v>
       </c>
     </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/qa_evaluation_test_cases.xlsx
+++ b/qa_evaluation_test_cases.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="65">
   <si>
     <t xml:space="preserve">TEST CASE ID</t>
   </si>
@@ -146,10 +146,7 @@
     <t xml:space="preserve">Log file contains question text, context, and all metrics fields</t>
   </si>
   <si>
-    <t xml:space="preserve">No module named 'qa_evaluation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fail</t>
+    <t xml:space="preserve">Passl</t>
   </si>
   <si>
     <t xml:space="preserve">TC-004</t>
@@ -234,32 +231,6 @@
   </si>
   <si>
     <t xml:space="preserve">Retries after rate limit error and returns correct answer on second attempt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC-007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Configuration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Validation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify model validation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test that the script correctly validates the configured model against allowed models</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Invalid model name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Patch MISTRAL_MODEL with invalid value
-2. Attempt to import the module
-3. Verify ValueError is raised with appropriate message</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ValueError raised with "Invalid model" message</t>
   </si>
 </sst>
 </file>
@@ -269,7 +240,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -299,14 +270,8 @@
       <family val="0"/>
       <charset val="1"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -321,14 +286,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor rgb="FFDDEBF7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF5429"/>
-        <bgColor rgb="FFFF8080"/>
+        <fgColor rgb="FF77BC65"/>
+        <bgColor rgb="FF99CC00"/>
       </patternFill>
     </fill>
   </fills>
@@ -373,7 +332,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -387,14 +346,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -443,7 +394,7 @@
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FF00CCFF"/>
       <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFC6EFCE"/>
+      <rgbColor rgb="FFCCFFCC"/>
       <rgbColor rgb="FFFFFF99"/>
       <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFF99CC"/>
@@ -454,9 +405,9 @@
       <rgbColor rgb="FF99CC00"/>
       <rgbColor rgb="FFFFCC00"/>
       <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF5429"/>
+      <rgbColor rgb="FFFF6600"/>
       <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF77BC65"/>
       <rgbColor rgb="FF003366"/>
       <rgbColor rgb="FF339966"/>
       <rgbColor rgb="FF003300"/>
@@ -477,10 +428,10 @@
   </sheetPr>
   <dimension ref="A1:K1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="I1" activeCellId="0" sqref="I1"/>
-      <selection pane="bottomLeft" activeCell="K8" activeCellId="0" sqref="K8"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="M7" activeCellId="0" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -628,39 +579,39 @@
         <v>37</v>
       </c>
       <c r="J4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4" s="3" t="s">
         <v>38</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="79.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="C5" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="E5" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="F5" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="G5" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="H5" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="I5" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>48</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>20</v>
@@ -671,31 +622,31 @@
     </row>
     <row r="6" customFormat="false" ht="79.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="C6" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="E6" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="F6" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="G6" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="H6" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="I6" s="2" t="s">
         <v>56</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>57</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>20</v>
@@ -706,31 +657,31 @@
     </row>
     <row r="7" customFormat="false" ht="79.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C7" s="2" t="s">
+      <c r="D7" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="E7" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="F7" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="G7" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="H7" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="I7" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>65</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>20</v>
@@ -739,41 +690,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="79.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="J8" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="K8" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
